--- a/py_outputs/ASJC_codes.xlsx
+++ b/py_outputs/ASJC_codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/big_team_who/py_outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC3BEB-7F3C-0A41-A86C-E1B8C1AB9195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEF9706-BBC8-6440-998D-8CD6E7E47D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>Soil Science</t>
   </si>
   <si>
-    <t>Arts and Humanities(all)</t>
-  </si>
-  <si>
     <t>Social Sciences &amp; Humanities</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Visual Arts and Performing Arts</t>
   </si>
   <si>
-    <t>Biochemistry, Genetics and Molecular Biology(all)</t>
-  </si>
-  <si>
     <t>Biochemistry, Genetics and Molecular Biology (miscellaneous)</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
     <t>Structural Biology</t>
   </si>
   <si>
-    <t>Business, Management and Accounting(all)</t>
-  </si>
-  <si>
     <t>Business, Management and Accounting (miscellaneous)</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>Industrial relations</t>
   </si>
   <si>
-    <t>Chemical Engineering(all)</t>
-  </si>
-  <si>
     <t>Physical Sciences</t>
   </si>
   <si>
@@ -220,9 +208,6 @@
     <t>Process Chemistry and Technology</t>
   </si>
   <si>
-    <t>Chemistry(all)</t>
-  </si>
-  <si>
     <t>Chemistry (miscellaneous)</t>
   </si>
   <si>
@@ -283,9 +268,6 @@
     <t>Software</t>
   </si>
   <si>
-    <t>Decision Sciences(all)</t>
-  </si>
-  <si>
     <t>Decision Sciences (miscellaneous)</t>
   </si>
   <si>
@@ -298,9 +280,6 @@
     <t>Statistics, Probability and Uncertainty</t>
   </si>
   <si>
-    <t>Earth and Planetary Sciences(all)</t>
-  </si>
-  <si>
     <t>Earth and Planetary Sciences (miscellaneous)</t>
   </si>
   <si>
@@ -340,9 +319,6 @@
     <t>Stratigraphy</t>
   </si>
   <si>
-    <t>Economics, Econometrics and Finance(all)</t>
-  </si>
-  <si>
     <t>Economics, Econometrics and Finance (miscellaneous)</t>
   </si>
   <si>
@@ -352,9 +328,6 @@
     <t>Finance</t>
   </si>
   <si>
-    <t>Energy(all)</t>
-  </si>
-  <si>
     <t>Energy (miscellaneous)</t>
   </si>
   <si>
@@ -370,9 +343,6 @@
     <t>Renewable Energy, Sustainability and the Environment</t>
   </si>
   <si>
-    <t>Engineering(all)</t>
-  </si>
-  <si>
     <t>Engineering (miscellaneous)</t>
   </si>
   <si>
@@ -421,9 +391,6 @@
     <t>Architecture</t>
   </si>
   <si>
-    <t>Environmental Science(all)</t>
-  </si>
-  <si>
     <t>Environmental Science (miscellaneous)</t>
   </si>
   <si>
@@ -460,9 +427,6 @@
     <t>Water Science and Technology</t>
   </si>
   <si>
-    <t>Immunology and Microbiology(all)</t>
-  </si>
-  <si>
     <t>Immunology and Microbiology (miscellaneous)</t>
   </si>
   <si>
@@ -481,9 +445,6 @@
     <t>Virology</t>
   </si>
   <si>
-    <t>Materials Science(all)</t>
-  </si>
-  <si>
     <t>Materials Science (miscellaneous)</t>
   </si>
   <si>
@@ -604,9 +565,6 @@
     <t>Gastroenterology</t>
   </si>
   <si>
-    <t>Genetics(clinical)</t>
-  </si>
-  <si>
     <t>Geriatrics and Gerontology</t>
   </si>
   <si>
@@ -703,9 +661,6 @@
     <t>Urology</t>
   </si>
   <si>
-    <t>Neuroscience(all)</t>
-  </si>
-  <si>
     <t>Neuroscience (miscellaneous)</t>
   </si>
   <si>
@@ -733,9 +688,6 @@
     <t>Sensory Systems</t>
   </si>
   <si>
-    <t>Nursing(all)</t>
-  </si>
-  <si>
     <t>Nursing (miscellaneous)</t>
   </si>
   <si>
@@ -784,9 +736,6 @@
     <t>Nutrition and Dietetics</t>
   </si>
   <si>
-    <t>Oncology(nursing)</t>
-  </si>
-  <si>
     <t>Pathophysiology</t>
   </si>
   <si>
@@ -805,9 +754,6 @@
     <t>Review and Exam Preparation</t>
   </si>
   <si>
-    <t>Pharmacology, Toxicology and Pharmaceutics(all)</t>
-  </si>
-  <si>
     <t>Pharmacology, Toxicology and Pharmaceutics (miscellaneous)</t>
   </si>
   <si>
@@ -823,9 +769,6 @@
     <t>Toxicology</t>
   </si>
   <si>
-    <t>Physics and Astronomy(all)</t>
-  </si>
-  <si>
     <t>Physics and Astronomy (miscellaneous)</t>
   </si>
   <si>
@@ -856,9 +799,6 @@
     <t>Surfaces and Interfaces</t>
   </si>
   <si>
-    <t>Psychology(all)</t>
-  </si>
-  <si>
     <t>Psychology (miscellaneous)</t>
   </si>
   <si>
@@ -880,9 +820,6 @@
     <t>Social Psychology</t>
   </si>
   <si>
-    <t>Social Sciences(all)</t>
-  </si>
-  <si>
     <t>Social Sciences (miscellaneous)</t>
   </si>
   <si>
@@ -895,9 +832,6 @@
     <t>Geography, Planning and Development</t>
   </si>
   <si>
-    <t>Health(social science)</t>
-  </si>
-  <si>
     <t>Human Factors and Ergonomics</t>
   </si>
   <si>
@@ -946,9 +880,6 @@
     <t>Urban Studies</t>
   </si>
   <si>
-    <t>veterinary(all)</t>
-  </si>
-  <si>
     <t>veterinary (miscalleneous)</t>
   </si>
   <si>
@@ -961,9 +892,6 @@
     <t>Small Animals</t>
   </si>
   <si>
-    <t>Dentistry(all)</t>
-  </si>
-  <si>
     <t>Dentistry (miscellaneous)</t>
   </si>
   <si>
@@ -982,9 +910,6 @@
     <t>Periodontics</t>
   </si>
   <si>
-    <t>Health Professions(all)</t>
-  </si>
-  <si>
     <t>Health Professions (miscellaneous)</t>
   </si>
   <si>
@@ -1040,6 +965,81 @@
   </si>
   <si>
     <t>SubjectArea</t>
+  </si>
+  <si>
+    <t>Arts and Humanities (all)</t>
+  </si>
+  <si>
+    <t>Biochemistry, Genetics and Molecular Biology (all)</t>
+  </si>
+  <si>
+    <t>Business, Management and Accounting (all)</t>
+  </si>
+  <si>
+    <t>Chemical Engineering (all)</t>
+  </si>
+  <si>
+    <t>Chemistry (all)</t>
+  </si>
+  <si>
+    <t>Decision Sciences (all)</t>
+  </si>
+  <si>
+    <t>Earth and Planetary Sciences (all)</t>
+  </si>
+  <si>
+    <t>Economics, Econometrics and Finance (all)</t>
+  </si>
+  <si>
+    <t>Energy (all)</t>
+  </si>
+  <si>
+    <t>Engineering (all)</t>
+  </si>
+  <si>
+    <t>Environmental Science (all)</t>
+  </si>
+  <si>
+    <t>Immunology and Microbiology (all)</t>
+  </si>
+  <si>
+    <t>Materials Science (all)</t>
+  </si>
+  <si>
+    <t>Neuroscience (all)</t>
+  </si>
+  <si>
+    <t>Nursing (all)</t>
+  </si>
+  <si>
+    <t>Pharmacology, Toxicology and Pharmaceutics (all)</t>
+  </si>
+  <si>
+    <t>Physics and Astronomy (all)</t>
+  </si>
+  <si>
+    <t>Psychology (all)</t>
+  </si>
+  <si>
+    <t>Social Sciences (all)</t>
+  </si>
+  <si>
+    <t>veterinary (all)</t>
+  </si>
+  <si>
+    <t>Dentistry (all)</t>
+  </si>
+  <si>
+    <t>Health Professions (all)</t>
+  </si>
+  <si>
+    <t>Genetics (clinical)</t>
+  </si>
+  <si>
+    <t>Oncology (nursing)</t>
+  </si>
+  <si>
+    <t>Health (social science)</t>
   </si>
 </sst>
 </file>
@@ -1062,6 +1062,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1080,6 +1081,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1348,7 +1350,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1358,16 +1360,16 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1444,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1499,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1510,163 +1512,163 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="B15" s="1">
         <v>1200</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>1201</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1202</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1203</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1204</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>1205</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>1206</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>1207</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>1208</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>1209</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>1210</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>1211</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>1212</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>1213</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
       <c r="B29" s="1">
         <v>1300</v>
@@ -1675,9 +1677,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>1301</v>
@@ -1686,9 +1688,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>1302</v>
@@ -1697,9 +1699,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="15">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>1303</v>
@@ -1708,9 +1710,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>1304</v>
@@ -1719,9 +1721,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>1305</v>
@@ -1730,9 +1732,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="15">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>1306</v>
@@ -1741,9 +1743,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="15">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>1307</v>
@@ -1752,9 +1754,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>1308</v>
@@ -1763,9 +1765,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="15">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>1309</v>
@@ -1774,9 +1776,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="15">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>1310</v>
@@ -1785,9 +1787,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>1311</v>
@@ -1796,9 +1798,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="15">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>1312</v>
@@ -1807,9 +1809,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>1313</v>
@@ -1818,9 +1820,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="15">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>1314</v>
@@ -1829,9 +1831,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="15">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>1315</v>
@@ -1840,1109 +1842,1109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="15">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="B45" s="1">
         <v>1400</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
         <v>1401</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
         <v>1402</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
         <v>1403</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1">
         <v>1404</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>1405</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1">
         <v>1406</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1">
         <v>1407</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1">
         <v>1408</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1">
         <v>1409</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
         <v>1410</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>318</v>
       </c>
       <c r="B56" s="1">
         <v>1500</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
         <v>1501</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
         <v>1502</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
         <v>1503</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="B60" s="1">
         <v>1504</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1">
         <v>1505</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
         <v>1506</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1">
         <v>1507</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1">
         <v>1508</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>319</v>
       </c>
       <c r="B65" s="1">
         <v>1600</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1">
         <v>1601</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1">
         <v>1602</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1">
         <v>1603</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1">
         <v>1604</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1">
         <v>1605</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1">
         <v>1606</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1">
         <v>1607</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
       <c r="A73" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1">
         <v>1700</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1">
         <v>1701</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1">
         <v>1702</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1">
         <v>1703</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1">
         <v>1704</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1">
         <v>1705</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1">
         <v>1706</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1">
         <v>1707</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1">
         <v>1708</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B82" s="1">
         <v>1709</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B83" s="1">
         <v>1710</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B84" s="1">
         <v>1711</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1">
         <v>1712</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c r="B86" s="1">
         <v>1800</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B87" s="1">
         <v>1801</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B88" s="1">
         <v>1802</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B89" s="1">
         <v>1803</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B90" s="1">
         <v>1804</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>321</v>
       </c>
       <c r="B91" s="1">
         <v>1900</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B92" s="1">
         <v>1901</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B93" s="1">
         <v>1902</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B94" s="1">
         <v>1903</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B95" s="1">
         <v>1904</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B96" s="1">
         <v>1905</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B97" s="1">
         <v>1906</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B98" s="1">
         <v>1907</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B99" s="1">
         <v>1908</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B100" s="1">
         <v>1909</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B101" s="1">
         <v>1910</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B102" s="1">
         <v>1911</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B103" s="1">
         <v>1912</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B104" s="1">
         <v>1913</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="B105" s="1">
         <v>2000</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B106" s="1">
         <v>2001</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B107" s="1">
         <v>2002</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B108" s="1">
         <v>2003</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>323</v>
       </c>
       <c r="B109" s="1">
         <v>2100</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B110" s="1">
         <v>2101</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B111" s="1">
         <v>2102</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B112" s="1">
         <v>2103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B113" s="1">
         <v>2104</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B114" s="1">
         <v>2105</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="B115" s="1">
         <v>2200</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B116" s="1">
         <v>2201</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B117" s="1">
         <v>2202</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B118" s="1">
         <v>2203</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B119" s="1">
         <v>2204</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15">
       <c r="A120" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B120" s="1">
         <v>2205</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15">
       <c r="A121" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B121" s="1">
         <v>2206</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15">
       <c r="A122" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B122" s="1">
         <v>2207</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B123" s="1">
         <v>2208</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15">
       <c r="A124" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B124" s="1">
         <v>2209</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15">
       <c r="A125" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B125" s="1">
         <v>2210</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15">
       <c r="A126" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B126" s="1">
         <v>2211</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15">
       <c r="A127" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B127" s="1">
         <v>2212</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15">
       <c r="A128" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B128" s="1">
         <v>2213</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15">
       <c r="A129" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B129" s="1">
         <v>2214</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15">
       <c r="A130" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B130" s="1">
         <v>2215</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15">
       <c r="A131" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B131" s="1">
         <v>2216</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15">
       <c r="A132" s="1" t="s">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="B132" s="1">
         <v>2300</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15">
       <c r="A133" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B133" s="1">
         <v>2301</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15">
       <c r="A134" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B134" s="1">
         <v>2302</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15">
       <c r="A135" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B135" s="1">
         <v>2303</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15">
       <c r="A136" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B136" s="1">
         <v>2304</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15">
       <c r="A137" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B137" s="1">
         <v>2305</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15">
       <c r="A138" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B138" s="1">
         <v>2306</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15">
       <c r="A139" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B139" s="1">
         <v>2307</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15">
       <c r="A140" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B140" s="1">
         <v>2308</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15">
       <c r="A141" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B141" s="1">
         <v>2309</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15">
       <c r="A142" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B142" s="1">
         <v>2310</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15">
       <c r="A143" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B143" s="1">
         <v>2311</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15">
       <c r="A144" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B144" s="1">
         <v>2312</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15">
       <c r="A145" s="1" t="s">
-        <v>146</v>
+        <v>326</v>
       </c>
       <c r="B145" s="1">
         <v>2400</v>
@@ -2951,9 +2953,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" ht="15">
       <c r="A146" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B146" s="1">
         <v>2401</v>
@@ -2962,9 +2964,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" ht="15">
       <c r="A147" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B147" s="1">
         <v>2402</v>
@@ -2973,9 +2975,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" ht="15">
       <c r="A148" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B148" s="1">
         <v>2403</v>
@@ -2984,9 +2986,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" ht="15">
       <c r="A149" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B149" s="1">
         <v>2404</v>
@@ -2995,9 +2997,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" ht="15">
       <c r="A150" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B150" s="1">
         <v>2405</v>
@@ -3006,9 +3008,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" ht="15">
       <c r="A151" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B151" s="1">
         <v>2406</v>
@@ -3017,812 +3019,812 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" ht="15">
       <c r="A152" s="1" t="s">
-        <v>153</v>
+        <v>327</v>
       </c>
       <c r="B152" s="1">
         <v>2500</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15">
       <c r="A153" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B153" s="1">
         <v>2501</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15">
       <c r="A154" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B154" s="1">
         <v>2502</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15">
       <c r="A155" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B155" s="1">
         <v>2503</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15">
       <c r="A156" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B156" s="1">
         <v>2504</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15">
       <c r="A157" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B157" s="1">
         <v>2505</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15">
       <c r="A158" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B158" s="1">
         <v>2506</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15">
       <c r="A159" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B159" s="1">
         <v>2507</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15">
       <c r="A160" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B160" s="1">
         <v>2508</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15">
       <c r="A161" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B161" s="1">
         <v>2600</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15">
       <c r="A162" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B162" s="1">
         <v>2601</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15">
       <c r="A163" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B163" s="1">
         <v>2602</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15">
       <c r="A164" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B164" s="1">
         <v>2603</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15">
       <c r="A165" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B165" s="1">
         <v>2604</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15">
       <c r="A166" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B166" s="1">
         <v>2605</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15">
       <c r="A167" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B167" s="1">
         <v>2606</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15">
       <c r="A168" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B168" s="1">
         <v>2607</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15">
       <c r="A169" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B169" s="1">
         <v>2608</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15">
       <c r="A170" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B170" s="1">
         <v>2609</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15">
       <c r="A171" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B171" s="1">
         <v>2610</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15">
       <c r="A172" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B172" s="1">
         <v>2611</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15">
       <c r="A173" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B173" s="1">
         <v>2612</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15">
       <c r="A174" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B174" s="1">
         <v>2613</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15">
       <c r="A175" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B175" s="1">
         <v>2614</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15">
       <c r="A176" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B176" s="1">
         <v>2700</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15">
       <c r="A177" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B177" s="1">
         <v>2701</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15">
       <c r="A178" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B178" s="1">
         <v>2702</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15">
       <c r="A179" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B179" s="1">
         <v>2703</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15">
       <c r="A180" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B180" s="1">
         <v>2704</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15">
       <c r="A181" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B181" s="1">
         <v>2705</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15">
       <c r="A182" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B182" s="1">
         <v>2706</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15">
       <c r="A183" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B183" s="1">
         <v>2707</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15">
       <c r="A184" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B184" s="1">
         <v>2708</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15">
       <c r="A185" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B185" s="1">
         <v>2709</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15">
       <c r="A186" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B186" s="1">
         <v>2710</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15">
       <c r="A187" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B187" s="1">
         <v>2711</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15">
       <c r="A188" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B188" s="1">
         <v>2712</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15">
+      <c r="A189" s="1" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="B189" s="1">
         <v>2713</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15">
       <c r="A190" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B190" s="1">
         <v>2714</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15">
       <c r="A191" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B191" s="1">
         <v>2715</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15">
       <c r="A192" s="1" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="B192" s="1">
         <v>2716</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15">
       <c r="A193" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B193" s="1">
         <v>2717</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15">
       <c r="A194" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B194" s="1">
         <v>2718</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15">
       <c r="A195" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B195" s="1">
         <v>2719</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15">
       <c r="A196" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B196" s="1">
         <v>2720</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15">
       <c r="A197" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B197" s="1">
         <v>2721</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15">
       <c r="A198" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B198" s="1">
         <v>2722</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15">
       <c r="A199" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B199" s="1">
         <v>2723</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15">
       <c r="A200" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B200" s="1">
         <v>2724</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15">
       <c r="A201" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B201" s="1">
         <v>2725</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15">
       <c r="A202" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B202" s="1">
         <v>2726</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15">
       <c r="A203" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B203" s="1">
         <v>2727</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15">
       <c r="A204" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B204" s="1">
         <v>2728</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15">
       <c r="A205" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B205" s="1">
         <v>2729</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15">
       <c r="A206" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B206" s="1">
         <v>2730</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15">
       <c r="A207" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B207" s="1">
         <v>2731</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15">
       <c r="A208" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B208" s="1">
         <v>2732</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15">
       <c r="A209" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B209" s="1">
         <v>2733</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15">
       <c r="A210" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B210" s="1">
         <v>2734</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15">
       <c r="A211" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B211" s="1">
         <v>2735</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15">
       <c r="A212" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B212" s="1">
         <v>2736</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15">
       <c r="A213" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B213" s="1">
         <v>2737</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15">
       <c r="A214" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B214" s="1">
         <v>2738</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15">
       <c r="A215" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B215" s="1">
         <v>2739</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15">
       <c r="A216" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B216" s="1">
         <v>2740</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15">
       <c r="A217" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B217" s="1">
         <v>2741</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15">
       <c r="A218" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B218" s="1">
         <v>2742</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15">
       <c r="A219" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B219" s="1">
         <v>2743</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15">
       <c r="A220" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B220" s="1">
         <v>2744</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15">
       <c r="A221" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B221" s="1">
         <v>2745</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15">
       <c r="A222" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B222" s="1">
         <v>2746</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15">
       <c r="A223" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B223" s="1">
         <v>2747</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15">
       <c r="A224" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B224" s="1">
         <v>2748</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15">
       <c r="A225" s="1" t="s">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="B225" s="1">
         <v>2800</v>
@@ -3831,9 +3833,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" ht="15">
       <c r="A226" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B226" s="1">
         <v>2801</v>
@@ -3842,9 +3844,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" ht="15">
       <c r="A227" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B227" s="1">
         <v>2802</v>
@@ -3853,9 +3855,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" ht="15">
       <c r="A228" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B228" s="1">
         <v>2803</v>
@@ -3864,9 +3866,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" ht="15">
       <c r="A229" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B229" s="1">
         <v>2804</v>
@@ -3875,9 +3877,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" ht="15">
       <c r="A230" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B230" s="1">
         <v>2805</v>
@@ -3886,9 +3888,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" ht="15">
       <c r="A231" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B231" s="1">
         <v>2806</v>
@@ -3897,9 +3899,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" ht="15">
       <c r="A232" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B232" s="1">
         <v>2807</v>
@@ -3908,9 +3910,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" ht="15">
       <c r="A233" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B233" s="1">
         <v>2808</v>
@@ -3919,9 +3921,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" ht="15">
       <c r="A234" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B234" s="1">
         <v>2809</v>
@@ -3930,273 +3932,273 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" ht="15">
       <c r="A235" s="1" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="B235" s="1">
         <v>2900</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15">
       <c r="A236" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B236" s="1">
         <v>2901</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15">
       <c r="A237" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B237" s="1">
         <v>2902</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15">
       <c r="A238" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B238" s="1">
         <v>2903</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15">
       <c r="A239" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B239" s="1">
         <v>2904</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15">
       <c r="A240" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B240" s="1">
         <v>2905</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15">
       <c r="A241" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B241" s="1">
         <v>2906</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15">
       <c r="A242" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B242" s="1">
         <v>2907</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15">
       <c r="A243" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B243" s="1">
         <v>2908</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15">
       <c r="A244" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B244" s="1">
         <v>2909</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15">
       <c r="A245" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B245" s="1">
         <v>2910</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15">
       <c r="A246" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B246" s="1">
         <v>2911</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15">
       <c r="A247" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B247" s="1">
         <v>2912</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15">
       <c r="A248" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B248" s="1">
         <v>2913</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15">
       <c r="A249" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B249" s="1">
         <v>2914</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15">
       <c r="A250" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B250" s="1">
         <v>2915</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15">
       <c r="A251" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B251" s="1">
         <v>2916</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15">
       <c r="A252" s="1" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B252" s="1">
         <v>2917</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15">
       <c r="A253" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B253" s="1">
         <v>2918</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15">
       <c r="A254" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B254" s="1">
         <v>2919</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15">
       <c r="A255" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B255" s="1">
         <v>2920</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15">
       <c r="A256" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B256" s="1">
         <v>2921</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15">
       <c r="A257" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B257" s="1">
         <v>2922</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15">
       <c r="A258" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B258" s="1">
         <v>2923</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15">
       <c r="A259" s="1" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="B259" s="1">
         <v>3000</v>
@@ -4205,9 +4207,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" ht="15">
       <c r="A260" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B260" s="1">
         <v>3001</v>
@@ -4216,9 +4218,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" ht="15">
       <c r="A261" s="1" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B261" s="1">
         <v>3002</v>
@@ -4227,9 +4229,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" ht="15">
       <c r="A262" s="1" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B262" s="1">
         <v>3003</v>
@@ -4238,9 +4240,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" ht="15">
       <c r="A263" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B263" s="1">
         <v>3004</v>
@@ -4249,9 +4251,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" ht="15">
       <c r="A264" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B264" s="1">
         <v>3005</v>
@@ -4260,785 +4262,785 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" ht="15">
       <c r="A265" s="1" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="B265" s="1">
         <v>3100</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15">
       <c r="A266" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B266" s="1">
         <v>3101</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15">
       <c r="A267" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B267" s="1">
         <v>3102</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15">
       <c r="A268" s="1" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B268" s="1">
         <v>3103</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15">
       <c r="A269" s="1" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="B269" s="1">
         <v>3104</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15">
       <c r="A270" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B270" s="1">
         <v>3105</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15">
       <c r="A271" s="1" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B271" s="1">
         <v>3106</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15">
       <c r="A272" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B272" s="1">
         <v>3107</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15">
       <c r="A273" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B273" s="1">
         <v>3108</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15">
       <c r="A274" s="1" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="B274" s="1">
         <v>3109</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15">
       <c r="A275" s="1" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B275" s="1">
         <v>3110</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15">
       <c r="A276" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="B276" s="1">
         <v>3200</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15">
       <c r="A277" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B277" s="1">
         <v>3201</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15">
       <c r="A278" s="1" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B278" s="1">
         <v>3202</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15">
       <c r="A279" s="1" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B279" s="1">
         <v>3203</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15">
       <c r="A280" s="1" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B280" s="1">
         <v>3204</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15">
       <c r="A281" s="1" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B281" s="1">
         <v>3205</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15">
       <c r="A282" s="1" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B282" s="1">
         <v>3206</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15">
       <c r="A283" s="1" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B283" s="1">
         <v>3207</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15">
       <c r="A284" s="1" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="B284" s="1">
         <v>3300</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15">
       <c r="A285" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B285" s="1">
         <v>3301</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15">
       <c r="A286" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B286" s="1">
         <v>3302</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15">
       <c r="A287" s="1" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B287" s="1">
         <v>3303</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15">
       <c r="A288" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B288" s="1">
         <v>3304</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15">
       <c r="A289" s="1" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="B289" s="1">
         <v>3305</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15">
       <c r="A290" s="1" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="B290" s="1">
         <v>3306</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15">
       <c r="A291" s="1" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B291" s="1">
         <v>3307</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15">
       <c r="A292" s="1" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B292" s="1">
         <v>3308</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15">
       <c r="A293" s="1" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B293" s="1">
         <v>3309</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15">
       <c r="A294" s="1" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B294" s="1">
         <v>3310</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15">
       <c r="A295" s="1" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B295" s="1">
         <v>3311</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15">
       <c r="A296" s="1" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B296" s="1">
         <v>3312</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15">
       <c r="A297" s="1" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B297" s="1">
         <v>3313</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15">
       <c r="A298" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B298" s="1">
         <v>3314</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15">
       <c r="A299" s="1" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B299" s="1">
         <v>3315</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15">
       <c r="A300" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="B300" s="1">
         <v>3316</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15">
       <c r="A301" s="1" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B301" s="1">
         <v>3317</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15">
       <c r="A302" s="1" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B302" s="1">
         <v>3318</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15">
       <c r="A303" s="1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B303" s="1">
         <v>3319</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15">
       <c r="A304" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B304" s="1">
         <v>3320</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="15">
       <c r="A305" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="B305" s="1">
         <v>3321</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="15">
       <c r="A306" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="B306" s="1">
         <v>3322</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="15">
       <c r="A307" s="1" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="B307" s="1">
         <v>3400</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="15">
       <c r="A308" s="1" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B308" s="1">
         <v>3401</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15">
       <c r="A309" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="B309" s="1">
         <v>3402</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15">
       <c r="A310" s="1" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B310" s="1">
         <v>3403</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15">
       <c r="A311" s="1" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B311" s="1">
         <v>3404</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15">
       <c r="A312" s="1" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B312" s="1">
         <v>3500</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15">
       <c r="A313" s="1" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="B313" s="1">
         <v>3501</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="15">
       <c r="A314" s="1" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B314" s="1">
         <v>3502</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15">
       <c r="A315" s="1" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="B315" s="1">
         <v>3503</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15">
       <c r="A316" s="1" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="B316" s="1">
         <v>3504</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15">
       <c r="A317" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B317" s="1">
         <v>3505</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15">
       <c r="A318" s="1" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B318" s="1">
         <v>3506</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15">
       <c r="A319" s="1" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B319" s="1">
         <v>3600</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15">
       <c r="A320" s="1" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="B320" s="1">
         <v>3601</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15">
       <c r="A321" s="1" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B321" s="1">
         <v>3602</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15">
       <c r="A322" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="B322" s="1">
         <v>3603</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15">
       <c r="A323" s="1" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B323" s="1">
         <v>3604</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="15">
       <c r="A324" s="1" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="B324" s="1">
         <v>3605</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="15">
       <c r="A325" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="B325" s="1">
         <v>3606</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15">
       <c r="A326" s="1" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="B326" s="1">
         <v>3607</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="15">
       <c r="A327" s="1" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="B327" s="1">
         <v>3608</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="15">
       <c r="A328" s="1" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="B328" s="1">
         <v>3609</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="15">
       <c r="A329" s="1" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="B329" s="1">
         <v>3610</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="15">
       <c r="A330" s="1" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="B330" s="1">
         <v>3611</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="15">
       <c r="A331" s="1" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="B331" s="1">
         <v>3612</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="15">
       <c r="A332" s="1" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="B332" s="1">
         <v>3613</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="15">
       <c r="A333" s="1" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B333" s="1">
         <v>3614</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="15">
       <c r="A334" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B334" s="1">
         <v>3615</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="15">
       <c r="A335" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="B335" s="1">
         <v>3616</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="15.75" customHeight="1">
